--- a/examsystem/src/main/webapp/template/student.xlsx
+++ b/examsystem/src/main/webapp/template/student.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F9006-C8CC-473B-9B05-988C4DED92BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09AE90F-3FE0-46AF-ABCC-C8F5E7D3F0CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,30 +40,34 @@
     <t>计算机科学与工程学院</t>
   </si>
   <si>
-    <t>201666688800</t>
-  </si>
-  <si>
     <t>学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>年级</t>
   </si>
   <si>
     <t>班级</t>
-  </si>
-  <si>
-    <t>网络工程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2016</t>
+    <t>2016级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络工程班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1035220011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +88,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -114,11 +111,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,17 +423,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -445,43 +441,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
